--- a/public/admin/fffi_payslip_formate.xlsx
+++ b/public/admin/fffi_payslip_formate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13991" windowHeight="6984"/>
+    <workbookView windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,190 +29,190 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
-    <t>emp_id</t>
-  </si>
-  <si>
-    <t>employee_name</t>
-  </si>
-  <si>
-    <t>designation</t>
-  </si>
-  <si>
-    <t>date_of_joining</t>
-  </si>
-  <si>
-    <t>department</t>
-  </si>
-  <si>
-    <t>uan_no</t>
-  </si>
-  <si>
-    <t>pf_no</t>
-  </si>
-  <si>
-    <t>esi_no</t>
-  </si>
-  <si>
-    <t>bank_name</t>
-  </si>
-  <si>
-    <t>account_no</t>
-  </si>
-  <si>
-    <t>ifsc_code</t>
-  </si>
-  <si>
-    <t>month_days</t>
-  </si>
-  <si>
-    <t>pay_days</t>
-  </si>
-  <si>
-    <t>leave_days</t>
-  </si>
-  <si>
-    <t>lop_days</t>
-  </si>
-  <si>
-    <t>arrear_days</t>
-  </si>
-  <si>
-    <t>ot_hours</t>
-  </si>
-  <si>
-    <t>fixed_basic</t>
-  </si>
-  <si>
-    <t>fixed_hra</t>
-  </si>
-  <si>
-    <t>fixed_con_allow</t>
-  </si>
-  <si>
-    <t>fixed_edu_allowance</t>
-  </si>
-  <si>
-    <t>fixed_med_reim</t>
-  </si>
-  <si>
-    <t>fixed_spec_allow</t>
-  </si>
-  <si>
-    <t>fixed_oth_allow</t>
-  </si>
-  <si>
-    <t>fixed_st_bonus</t>
-  </si>
-  <si>
-    <t>fixed_leave_wages</t>
-  </si>
-  <si>
-    <t>fixed_holidays_wages</t>
-  </si>
-  <si>
-    <t>fixed_attendance_bonus</t>
-  </si>
-  <si>
-    <t>fixed_ot_wages</t>
-  </si>
-  <si>
-    <t>fixed_incentive</t>
-  </si>
-  <si>
-    <t>fixed_arrear_wages</t>
-  </si>
-  <si>
-    <t>fixed_other_wages</t>
-  </si>
-  <si>
-    <t>fixed_gross</t>
-  </si>
-  <si>
-    <t>earned_basic</t>
-  </si>
-  <si>
-    <t>earned_hra</t>
-  </si>
-  <si>
-    <t>earned_con_allow</t>
-  </si>
-  <si>
-    <t>earned_education_allowance</t>
-  </si>
-  <si>
-    <t>earned_med_reim</t>
-  </si>
-  <si>
-    <t>earned_spec_allow</t>
-  </si>
-  <si>
-    <t>earned_oth_allow</t>
-  </si>
-  <si>
-    <t>earned_st_bonus</t>
-  </si>
-  <si>
-    <t>earned_leave_wages</t>
-  </si>
-  <si>
-    <t>earned_holiday_wages</t>
-  </si>
-  <si>
-    <t>earned_attendance_bonus</t>
-  </si>
-  <si>
-    <t>earned_ot_wages</t>
-  </si>
-  <si>
-    <t>earned_incentive</t>
-  </si>
-  <si>
-    <t>earned_arrear_wages</t>
-  </si>
-  <si>
-    <t>earned_other_wages</t>
-  </si>
-  <si>
-    <t>earned_gross</t>
-  </si>
-  <si>
-    <t>epf</t>
-  </si>
-  <si>
-    <t>esic</t>
-  </si>
-  <si>
-    <t>pt</t>
-  </si>
-  <si>
-    <t>it</t>
-  </si>
-  <si>
-    <t>lwf</t>
-  </si>
-  <si>
-    <t>salary_advance</t>
-  </si>
-  <si>
-    <t>other_deduction</t>
-  </si>
-  <si>
-    <t>total_deductions</t>
-  </si>
-  <si>
-    <t>net_salary</t>
-  </si>
-  <si>
-    <t>in_words</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>location</t>
+    <t>Employee Id</t>
+  </si>
+  <si>
+    <t>Employee Name</t>
+  </si>
+  <si>
+    <t>Designation</t>
+  </si>
+  <si>
+    <t>Date Of Joining</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Uan No</t>
+  </si>
+  <si>
+    <t>Pf No</t>
+  </si>
+  <si>
+    <t>Esi No</t>
+  </si>
+  <si>
+    <t>Bank Name</t>
+  </si>
+  <si>
+    <t>Account No</t>
+  </si>
+  <si>
+    <t>Ifsc Code</t>
+  </si>
+  <si>
+    <t>Month Days</t>
+  </si>
+  <si>
+    <t>Pay Days</t>
+  </si>
+  <si>
+    <t>Leave Days</t>
+  </si>
+  <si>
+    <t>Lop Days</t>
+  </si>
+  <si>
+    <t>Arrear Days</t>
+  </si>
+  <si>
+    <t>Ot Hours</t>
+  </si>
+  <si>
+    <t>Fixed Basic</t>
+  </si>
+  <si>
+    <t>Fixed Hra</t>
+  </si>
+  <si>
+    <t>Fixed Con Allow</t>
+  </si>
+  <si>
+    <t>Fixed Edu Allowance</t>
+  </si>
+  <si>
+    <t>Fixed Med Reim</t>
+  </si>
+  <si>
+    <t>Fixed Spec Allow</t>
+  </si>
+  <si>
+    <t>Fixed Oth Allow</t>
+  </si>
+  <si>
+    <t>Fixed St Bonus</t>
+  </si>
+  <si>
+    <t>Fixed Leave Wages</t>
+  </si>
+  <si>
+    <t>Fixed Holidays Wages</t>
+  </si>
+  <si>
+    <t>Fixed Attendance Bonus</t>
+  </si>
+  <si>
+    <t>Fixed Ot Wages</t>
+  </si>
+  <si>
+    <t>Fixed Incentive</t>
+  </si>
+  <si>
+    <t>Fixed Arrear Wages</t>
+  </si>
+  <si>
+    <t>Fixed Other Wages</t>
+  </si>
+  <si>
+    <t>Fixed Gross</t>
+  </si>
+  <si>
+    <t>Earned Basic</t>
+  </si>
+  <si>
+    <t>Earned Hra</t>
+  </si>
+  <si>
+    <t>Earned Con Allow</t>
+  </si>
+  <si>
+    <t>Earned Education Allowance</t>
+  </si>
+  <si>
+    <t>Earned Med Reim</t>
+  </si>
+  <si>
+    <t>Earned Spec Allow</t>
+  </si>
+  <si>
+    <t>Earned Oth Allow</t>
+  </si>
+  <si>
+    <t>Earned St Bonus</t>
+  </si>
+  <si>
+    <t>Earned Leave Wages</t>
+  </si>
+  <si>
+    <t>Earned Holiday Wages</t>
+  </si>
+  <si>
+    <t>Earned Attendance Bonus</t>
+  </si>
+  <si>
+    <t>Earned Ot Wages</t>
+  </si>
+  <si>
+    <t>Earned Incentive</t>
+  </si>
+  <si>
+    <t>Earned Arrear Wages</t>
+  </si>
+  <si>
+    <t>Earned Other Wages</t>
+  </si>
+  <si>
+    <t>Earned Gross</t>
+  </si>
+  <si>
+    <t>Epf</t>
+  </si>
+  <si>
+    <t>Esic</t>
+  </si>
+  <si>
+    <t>Pt</t>
+  </si>
+  <si>
+    <t>It</t>
+  </si>
+  <si>
+    <t>Lwf</t>
+  </si>
+  <si>
+    <t>Salary Advance</t>
+  </si>
+  <si>
+    <t>Other Deduction</t>
+  </si>
+  <si>
+    <t>Total Deductions</t>
+  </si>
+  <si>
+    <t>Net Salary</t>
+  </si>
+  <si>
+    <t>In Words</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Location</t>
   </si>
 </sst>
 </file>
@@ -225,13 +225,19 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -704,137 +710,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -842,6 +848,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1377,14 +1386,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BJ1"/>
+  <dimension ref="A1:BJ3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BC1" workbookViewId="0">
-      <selection activeCell="BK7" sqref="BK7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <cols>
+    <col min="1" max="1" width="16.5555555555556" customWidth="1"/>
     <col min="2" max="2" width="16.8888888888889" customWidth="1"/>
     <col min="3" max="3" width="17.3333333333333" customWidth="1"/>
     <col min="4" max="4" width="17.4444444444444" customWidth="1"/>
@@ -1399,6 +1409,8 @@
     <col min="15" max="15" width="14.2222222222222" customWidth="1"/>
     <col min="16" max="16" width="13.5555555555556" customWidth="1"/>
     <col min="17" max="17" width="14.6666666666667" customWidth="1"/>
+    <col min="18" max="18" width="15.5555555555556" customWidth="1"/>
+    <col min="19" max="19" width="10.3333333333333" customWidth="1"/>
     <col min="20" max="20" width="22" customWidth="1"/>
     <col min="21" max="21" width="26.8888888888889" customWidth="1"/>
     <col min="22" max="22" width="22.4444444444444" customWidth="1"/>
@@ -1406,190 +1418,215 @@
     <col min="24" max="24" width="18" customWidth="1"/>
     <col min="25" max="25" width="24.5555555555556" customWidth="1"/>
     <col min="26" max="26" width="21.8888888888889" customWidth="1"/>
-    <col min="27" max="27" width="16.7777777777778" customWidth="1"/>
+    <col min="27" max="27" width="32.7777777777778" customWidth="1"/>
+    <col min="28" max="28" width="31.2222222222222" customWidth="1"/>
+    <col min="29" max="29" width="18.7777777777778" customWidth="1"/>
+    <col min="30" max="30" width="24.8888888888889" customWidth="1"/>
+    <col min="31" max="31" width="27.7777777777778" customWidth="1"/>
+    <col min="32" max="32" width="21.8888888888889" customWidth="1"/>
+    <col min="33" max="33" width="21.5555555555556" customWidth="1"/>
+    <col min="34" max="34" width="22.8888888888889" customWidth="1"/>
+    <col min="35" max="35" width="25.8888888888889" customWidth="1"/>
+    <col min="36" max="36" width="29.7777777777778" customWidth="1"/>
+    <col min="37" max="37" width="38.1111111111111" customWidth="1"/>
+    <col min="38" max="38" width="21.4444444444444" customWidth="1"/>
     <col min="39" max="39" width="22.5555555555556" customWidth="1"/>
+    <col min="40" max="40" width="18.6666666666667" customWidth="1"/>
     <col min="41" max="41" width="17.3333333333333" customWidth="1"/>
+    <col min="42" max="42" width="26.5555555555556" customWidth="1"/>
+    <col min="43" max="43" width="26.8888888888889" customWidth="1"/>
+    <col min="44" max="44" width="28.3333333333333" customWidth="1"/>
+    <col min="45" max="45" width="20.4444444444444" customWidth="1"/>
+    <col min="46" max="46" width="22.7777777777778" customWidth="1"/>
+    <col min="47" max="47" width="25" customWidth="1"/>
+    <col min="48" max="48" width="22.1111111111111" customWidth="1"/>
+    <col min="49" max="49" width="18.3333333333333" customWidth="1"/>
+    <col min="55" max="55" width="23.6666666666667" customWidth="1"/>
+    <col min="56" max="56" width="22.5555555555556" customWidth="1"/>
+    <col min="57" max="57" width="23.4444444444444" customWidth="1"/>
+    <col min="58" max="58" width="20.5555555555556" customWidth="1"/>
+    <col min="59" max="59" width="22.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="57.6" spans="1:62">
+    <row r="1" s="1" customFormat="1" ht="22" customHeight="1" spans="1:62">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AH1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AI1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AK1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AL1" s="3" t="s">
         <v>37</v>
       </c>
       <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AN1" s="3" t="s">
         <v>39</v>
       </c>
       <c r="AO1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AP1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AR1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AS1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AT1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AU1" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AV1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AW1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AX1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AY1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BA1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BB1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BC1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BD1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BE1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BF1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BG1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BH1" s="3" t="s">
         <v>59</v>
       </c>
       <c r="BI1" s="1" t="s">
@@ -1598,6 +1635,12 @@
       <c r="BJ1" s="1" t="s">
         <v>61</v>
       </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/public/admin/fffi_payslip_formate.xlsx
+++ b/public/admin/fffi_payslip_formate.xlsx
@@ -29,190 +29,190 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
-    <t>Employee Id</t>
-  </si>
-  <si>
-    <t>Employee Name</t>
-  </si>
-  <si>
-    <t>Designation</t>
-  </si>
-  <si>
-    <t>Date Of Joining</t>
-  </si>
-  <si>
-    <t>Department</t>
-  </si>
-  <si>
-    <t>Uan No</t>
-  </si>
-  <si>
-    <t>Pf No</t>
-  </si>
-  <si>
-    <t>Esi No</t>
-  </si>
-  <si>
-    <t>Bank Name</t>
-  </si>
-  <si>
-    <t>Account No</t>
-  </si>
-  <si>
-    <t>Ifsc Code</t>
-  </si>
-  <si>
-    <t>Month Days</t>
-  </si>
-  <si>
-    <t>Pay Days</t>
-  </si>
-  <si>
-    <t>Leave Days</t>
-  </si>
-  <si>
-    <t>Lop Days</t>
-  </si>
-  <si>
-    <t>Arrear Days</t>
-  </si>
-  <si>
-    <t>Ot Hours</t>
-  </si>
-  <si>
-    <t>Fixed Basic</t>
-  </si>
-  <si>
-    <t>Fixed Hra</t>
-  </si>
-  <si>
-    <t>Fixed Con Allow</t>
-  </si>
-  <si>
-    <t>Fixed Edu Allowance</t>
-  </si>
-  <si>
-    <t>Fixed Med Reim</t>
-  </si>
-  <si>
-    <t>Fixed Spec Allow</t>
-  </si>
-  <si>
-    <t>Fixed Oth Allow</t>
-  </si>
-  <si>
-    <t>Fixed St Bonus</t>
-  </si>
-  <si>
-    <t>Fixed Leave Wages</t>
-  </si>
-  <si>
-    <t>Fixed Holidays Wages</t>
-  </si>
-  <si>
-    <t>Fixed Attendance Bonus</t>
-  </si>
-  <si>
-    <t>Fixed Ot Wages</t>
-  </si>
-  <si>
-    <t>Fixed Incentive</t>
-  </si>
-  <si>
-    <t>Fixed Arrear Wages</t>
-  </si>
-  <si>
-    <t>Fixed Other Wages</t>
-  </si>
-  <si>
-    <t>Fixed Gross</t>
-  </si>
-  <si>
-    <t>Earned Basic</t>
-  </si>
-  <si>
-    <t>Earned Hra</t>
-  </si>
-  <si>
-    <t>Earned Con Allow</t>
-  </si>
-  <si>
-    <t>Earned Education Allowance</t>
-  </si>
-  <si>
-    <t>Earned Med Reim</t>
-  </si>
-  <si>
-    <t>Earned Spec Allow</t>
-  </si>
-  <si>
-    <t>Earned Oth Allow</t>
-  </si>
-  <si>
-    <t>Earned St Bonus</t>
-  </si>
-  <si>
-    <t>Earned Leave Wages</t>
-  </si>
-  <si>
-    <t>Earned Holiday Wages</t>
-  </si>
-  <si>
-    <t>Earned Attendance Bonus</t>
-  </si>
-  <si>
-    <t>Earned Ot Wages</t>
-  </si>
-  <si>
-    <t>Earned Incentive</t>
-  </si>
-  <si>
-    <t>Earned Arrear Wages</t>
-  </si>
-  <si>
-    <t>Earned Other Wages</t>
-  </si>
-  <si>
-    <t>Earned Gross</t>
-  </si>
-  <si>
-    <t>Epf</t>
-  </si>
-  <si>
-    <t>Esic</t>
-  </si>
-  <si>
-    <t>Pt</t>
-  </si>
-  <si>
-    <t>It</t>
-  </si>
-  <si>
-    <t>Lwf</t>
-  </si>
-  <si>
-    <t>Salary Advance</t>
-  </si>
-  <si>
-    <t>Other Deduction</t>
-  </si>
-  <si>
-    <t>Total Deductions</t>
-  </si>
-  <si>
-    <t>Net Salary</t>
-  </si>
-  <si>
-    <t>In Words</t>
-  </si>
-  <si>
-    <t>Month</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Location</t>
+    <t>emp_id</t>
+  </si>
+  <si>
+    <t>employee_name</t>
+  </si>
+  <si>
+    <t>designation</t>
+  </si>
+  <si>
+    <t>date_of_joining</t>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>uan_no</t>
+  </si>
+  <si>
+    <t>pf_no</t>
+  </si>
+  <si>
+    <t>esi_no</t>
+  </si>
+  <si>
+    <t>bank_name</t>
+  </si>
+  <si>
+    <t>account_no</t>
+  </si>
+  <si>
+    <t>ifsc_code</t>
+  </si>
+  <si>
+    <t>month_days</t>
+  </si>
+  <si>
+    <t>pay_days</t>
+  </si>
+  <si>
+    <t>leave_days</t>
+  </si>
+  <si>
+    <t>lop_days</t>
+  </si>
+  <si>
+    <t>arrear_days</t>
+  </si>
+  <si>
+    <t>ot_hours</t>
+  </si>
+  <si>
+    <t>fixed_basic</t>
+  </si>
+  <si>
+    <t>fixed_hra</t>
+  </si>
+  <si>
+    <t>fixed_con_allow</t>
+  </si>
+  <si>
+    <t>fixed_edu_allowance</t>
+  </si>
+  <si>
+    <t>fixed_med_reim</t>
+  </si>
+  <si>
+    <t>fixed_spec_allow</t>
+  </si>
+  <si>
+    <t>fixed_oth_allow</t>
+  </si>
+  <si>
+    <t>fixed_st_bonus</t>
+  </si>
+  <si>
+    <t>fixed_leave_wages</t>
+  </si>
+  <si>
+    <t>fixed_holidays_wages</t>
+  </si>
+  <si>
+    <t>fixed_attendance_bonus</t>
+  </si>
+  <si>
+    <t>fixed_ot_wages</t>
+  </si>
+  <si>
+    <t>fixed_incentive</t>
+  </si>
+  <si>
+    <t>fixed_arrear_wages</t>
+  </si>
+  <si>
+    <t>fixed_other_wages</t>
+  </si>
+  <si>
+    <t>fixed_gross</t>
+  </si>
+  <si>
+    <t>earned_basic</t>
+  </si>
+  <si>
+    <t>earned_hra</t>
+  </si>
+  <si>
+    <t>earned_con_allow</t>
+  </si>
+  <si>
+    <t>earned_education_allowance</t>
+  </si>
+  <si>
+    <t>earned_med_reim</t>
+  </si>
+  <si>
+    <t>earned_spec_allow</t>
+  </si>
+  <si>
+    <t>earned_oth_allow</t>
+  </si>
+  <si>
+    <t>earned_st_bonus</t>
+  </si>
+  <si>
+    <t>earned_leave_wages</t>
+  </si>
+  <si>
+    <t>earned_holiday_wages</t>
+  </si>
+  <si>
+    <t>earned_attendance_bonus</t>
+  </si>
+  <si>
+    <t>earned_ot_wages</t>
+  </si>
+  <si>
+    <t>earned_incentive</t>
+  </si>
+  <si>
+    <t>earned_arrear_wages</t>
+  </si>
+  <si>
+    <t>earned_other_wages</t>
+  </si>
+  <si>
+    <t>earned_gross</t>
+  </si>
+  <si>
+    <t>epf</t>
+  </si>
+  <si>
+    <t>esic</t>
+  </si>
+  <si>
+    <t>pt</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>lwf</t>
+  </si>
+  <si>
+    <t>salary_advance</t>
+  </si>
+  <si>
+    <t>other_deduction</t>
+  </si>
+  <si>
+    <t>total_deductions</t>
+  </si>
+  <si>
+    <t>net_salary</t>
+  </si>
+  <si>
+    <t>in_words</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>location</t>
   </si>
 </sst>
 </file>
@@ -235,12 +235,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Consolas"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10.5"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Consolas"/>
       <charset val="134"/>
@@ -847,8 +847,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1389,7 +1389,7 @@
   <dimension ref="A1:BJ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
@@ -1455,192 +1455,192 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AG1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AH1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AI1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AK1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AL1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AN1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AP1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AR1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AS1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AT1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AU1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AV1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="AW1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="AX1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="AY1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="3" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="3" t="s">
+      <c r="BA1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="3" t="s">
+      <c r="BB1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="3" t="s">
+      <c r="BC1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="3" t="s">
+      <c r="BD1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="3" t="s">
+      <c r="BE1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="3" t="s">
+      <c r="BF1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="3" t="s">
+      <c r="BG1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="3" t="s">
+      <c r="BH1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BI1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" s="2"/>
+      <c r="B2" s="3"/>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="2"/>
+      <c r="B3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
